--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I656"/>
+  <dimension ref="A1:I657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23568,6 +23568,41 @@
         <v>49100</v>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E657" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F657" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G657" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I657" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I657"/>
+  <dimension ref="A1:I658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23603,6 +23603,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E658" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F658" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G658" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I658"/>
+  <dimension ref="A1:I659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23640,6 +23640,41 @@
         </is>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E659" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F659" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G659" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I659" t="n">
+        <v>55800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I659"/>
+  <dimension ref="A1:I660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23675,6 +23675,43 @@
         <v>55800</v>
       </c>
     </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E660" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F660" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G660" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I660"/>
+  <dimension ref="A1:I661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23712,6 +23712,43 @@
         </is>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E661" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F661" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G661" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I661"/>
+  <dimension ref="A1:I662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23749,6 +23749,41 @@
         </is>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E662" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F662" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G662" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I662" t="n">
+        <v>140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I662"/>
+  <dimension ref="A1:I663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23784,6 +23784,43 @@
         <v>140000</v>
       </c>
     </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E663" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F663" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G663" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H663" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I663"/>
+  <dimension ref="A1:I664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23821,6 +23821,43 @@
         </is>
       </c>
     </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E664" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F664" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G664" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I664"/>
+  <dimension ref="A1:I665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23858,6 +23858,43 @@
         </is>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E665" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F665" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G665" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I665"/>
+  <dimension ref="A1:I666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23895,6 +23895,41 @@
         </is>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E666" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F666" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G666" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I666" t="n">
+        <v>58300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I666"/>
+  <dimension ref="A1:I667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23930,6 +23930,43 @@
         <v>58300</v>
       </c>
     </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E667" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F667" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G667" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I667"/>
+  <dimension ref="A1:I668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23967,6 +23967,41 @@
         </is>
       </c>
     </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E668" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F668" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G668" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I668" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I668"/>
+  <dimension ref="A1:I670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24002,6 +24002,76 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E669" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F669" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G669" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I669" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E670" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F670" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G670" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I670" t="n">
+        <v>29900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I670"/>
+  <dimension ref="A1:I672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24072,6 +24072,78 @@
         <v>29900</v>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E671" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F671" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G671" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E672" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F672" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G672" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I672" t="n">
+        <v>52600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I672"/>
+  <dimension ref="A1:I673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24144,6 +24144,41 @@
         <v>52600</v>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E673" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F673" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G673" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I673" t="n">
+        <v>212800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I673"/>
+  <dimension ref="A1:I674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24179,6 +24179,41 @@
         <v>212800</v>
       </c>
     </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E674" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I674" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I674"/>
+  <dimension ref="A1:I675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24214,6 +24214,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E675" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F675" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G675" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I675"/>
+  <dimension ref="A1:I676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24251,6 +24251,41 @@
         </is>
       </c>
     </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E676" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F676" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G676" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I676" t="n">
+        <v>32400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I676"/>
+  <dimension ref="A1:I678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24286,6 +24286,76 @@
         <v>32400</v>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E677" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G677" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I677" t="n">
+        <v>80100</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E678" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F678" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I678" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I678"/>
+  <dimension ref="A1:I679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24356,6 +24356,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E679" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F679" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G679" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I679" t="n">
+        <v>105000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I679"/>
+  <dimension ref="A1:I680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24391,6 +24391,41 @@
         <v>105000</v>
       </c>
     </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E680" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G680" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I680" t="n">
+        <v>385300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I680"/>
+  <dimension ref="A1:I688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21847,11 +21847,11 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21865,28 +21865,28 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>0.235</v>
+        <v>0.205</v>
       </c>
       <c r="F608" t="n">
-        <v>0.24</v>
+        <v>0.205</v>
       </c>
       <c r="G608" t="n">
-        <v>0.225</v>
+        <v>0.205</v>
       </c>
       <c r="H608" t="n">
-        <v>0.225</v>
+        <v>0.205</v>
       </c>
       <c r="I608" t="n">
-        <v>459200</v>
+        <v>29800</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -21900,28 +21900,28 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>0.23</v>
+        <v>0.205</v>
       </c>
       <c r="F609" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="G609" t="n">
-        <v>0.21</v>
+        <v>0.205</v>
       </c>
       <c r="H609" t="n">
-        <v>0.225</v>
+        <v>0.205</v>
       </c>
       <c r="I609" t="n">
-        <v>338600</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21935,28 +21935,28 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>0.225</v>
+        <v>0.205</v>
       </c>
       <c r="F610" t="n">
-        <v>0.225</v>
+        <v>0.205</v>
       </c>
       <c r="G610" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="H610" t="n">
-        <v>0.22</v>
+        <v>0.205</v>
       </c>
       <c r="I610" t="n">
-        <v>247500</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21970,28 +21970,28 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="F611" t="n">
-        <v>0.22</v>
+        <v>0.205</v>
       </c>
       <c r="G611" t="n">
-        <v>0.21</v>
+        <v>0.205</v>
       </c>
       <c r="H611" t="n">
-        <v>0.22</v>
+        <v>0.205</v>
       </c>
       <c r="I611" t="n">
-        <v>113400</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>1575504000</v>
+        <v>1574640000</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -22005,28 +22005,28 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F612" t="n">
-        <v>0.23</v>
+        <v>0.205</v>
       </c>
       <c r="G612" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="H612" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="I612" t="n">
-        <v>130100</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>1575590400</v>
+        <v>1574726400</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -22040,30 +22040,28 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="F613" t="n">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="G613" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="H613" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="I613" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.21</v>
+      </c>
+      <c r="I613" t="n">
+        <v>371400</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>1575849600</v>
+        <v>1574812800</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -22080,7 +22078,7 @@
         <v>0.215</v>
       </c>
       <c r="F614" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="G614" t="n">
         <v>0.215</v>
@@ -22089,16 +22087,16 @@
         <v>0.22</v>
       </c>
       <c r="I614" t="n">
-        <v>216900</v>
+        <v>510200</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>1575936000</v>
+        <v>1574899200</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -22124,16 +22122,16 @@
         <v>0.23</v>
       </c>
       <c r="I615" t="n">
-        <v>208600</v>
+        <v>622100</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>1576022400</v>
+        <v>1574985600</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -22147,28 +22145,28 @@
         </is>
       </c>
       <c r="E616" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F616" t="n">
         <v>0.24</v>
       </c>
-      <c r="F616" t="n">
-        <v>0.245</v>
-      </c>
       <c r="G616" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="H616" t="n">
-        <v>0.24</v>
+        <v>0.225</v>
       </c>
       <c r="I616" t="n">
-        <v>731500</v>
+        <v>459200</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>1576108800</v>
+        <v>1575244800</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -22182,28 +22180,28 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F617" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="G617" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="H617" t="n">
-        <v>0.24</v>
+        <v>0.225</v>
       </c>
       <c r="I617" t="n">
-        <v>95000</v>
+        <v>338600</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>1576195200</v>
+        <v>1575331200</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -22217,28 +22215,28 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>0.24</v>
+        <v>0.225</v>
       </c>
       <c r="F618" t="n">
-        <v>0.24</v>
+        <v>0.225</v>
       </c>
       <c r="G618" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="H618" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I618" t="n">
-        <v>60000</v>
+        <v>247500</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>1576454400</v>
+        <v>1575417600</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -22252,28 +22250,28 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>0.235</v>
+        <v>0.215</v>
       </c>
       <c r="F619" t="n">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="G619" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H619" t="n">
         <v>0.22</v>
       </c>
-      <c r="H619" t="n">
-        <v>0.225</v>
-      </c>
       <c r="I619" t="n">
-        <v>118000</v>
+        <v>113400</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>1576540800</v>
+        <v>1575504000</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -22287,28 +22285,28 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F620" t="n">
         <v>0.23</v>
       </c>
       <c r="G620" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="H620" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="I620" t="n">
-        <v>24500</v>
+        <v>130100</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>1576627200</v>
+        <v>1575590400</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -22322,28 +22320,30 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>0.225</v>
+        <v>0.215</v>
       </c>
       <c r="F621" t="n">
-        <v>0.225</v>
+        <v>0.215</v>
       </c>
       <c r="G621" t="n">
-        <v>0.225</v>
+        <v>0.215</v>
       </c>
       <c r="H621" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="I621" t="n">
-        <v>20000</v>
+        <v>0.215</v>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>1576713600</v>
+        <v>1575849600</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -22357,28 +22357,28 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>0.225</v>
+        <v>0.215</v>
       </c>
       <c r="F622" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="G622" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="H622" t="n">
         <v>0.22</v>
       </c>
       <c r="I622" t="n">
-        <v>94200</v>
+        <v>216900</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>1576800000</v>
+        <v>1575936000</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -22395,25 +22395,25 @@
         <v>0.22</v>
       </c>
       <c r="F623" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="G623" t="n">
         <v>0.22</v>
       </c>
       <c r="H623" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I623" t="n">
-        <v>26400</v>
+        <v>208600</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>1577059200</v>
+        <v>1576022400</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -22427,28 +22427,28 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>0.215</v>
+        <v>0.24</v>
       </c>
       <c r="F624" t="n">
-        <v>0.22</v>
+        <v>0.245</v>
       </c>
       <c r="G624" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="H624" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I624" t="n">
-        <v>51100</v>
+        <v>731500</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>1577145600</v>
+        <v>1576108800</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -22462,28 +22462,28 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="F625" t="n">
-        <v>0.225</v>
+        <v>0.24</v>
       </c>
       <c r="G625" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="H625" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I625" t="n">
-        <v>12000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>1577318400</v>
+        <v>1576195200</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -22497,10 +22497,10 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F626" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G626" t="n">
         <v>0.23</v>
@@ -22509,16 +22509,16 @@
         <v>0.23</v>
       </c>
       <c r="I626" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>1577404800</v>
+        <v>1576454400</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -22532,28 +22532,28 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>0.23</v>
+        <v>0.235</v>
       </c>
       <c r="F627" t="n">
-        <v>0.23</v>
+        <v>0.235</v>
       </c>
       <c r="G627" t="n">
         <v>0.22</v>
       </c>
       <c r="H627" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I627" t="n">
-        <v>24600</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>1577664000</v>
+        <v>1576540800</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -22570,25 +22570,25 @@
         <v>0.22</v>
       </c>
       <c r="F628" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G628" t="n">
         <v>0.22</v>
       </c>
-      <c r="G628" t="n">
-        <v>0.215</v>
-      </c>
       <c r="H628" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I628" t="n">
-        <v>184500</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>1577750400</v>
+        <v>1576627200</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -22602,28 +22602,28 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="F629" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="G629" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H629" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="I629" t="n">
-        <v>44100</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>1577923200</v>
+        <v>1576713600</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -22640,25 +22640,25 @@
         <v>0.225</v>
       </c>
       <c r="F630" t="n">
-        <v>0.245</v>
+        <v>0.225</v>
       </c>
       <c r="G630" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H630" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="I630" t="n">
-        <v>863700</v>
+        <v>94200</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>1578009600</v>
+        <v>1576800000</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -22672,28 +22672,28 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="F631" t="n">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="G631" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H631" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="I631" t="n">
-        <v>195400</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>1578268800</v>
+        <v>1577059200</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -22707,28 +22707,28 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>0.225</v>
+        <v>0.215</v>
       </c>
       <c r="F632" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="G632" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="H632" t="n">
         <v>0.22</v>
       </c>
       <c r="I632" t="n">
-        <v>208100</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>1578355200</v>
+        <v>1577145600</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -22754,16 +22754,16 @@
         <v>0.22</v>
       </c>
       <c r="I633" t="n">
-        <v>555100</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>1578441600</v>
+        <v>1577318400</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -22777,28 +22777,28 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F634" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G634" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="H634" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I634" t="n">
-        <v>292700</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>1578528000</v>
+        <v>1577404800</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -22812,28 +22812,28 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="F635" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="G635" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H635" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="I635" t="n">
-        <v>14800</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>1578614400</v>
+        <v>1577664000</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -22847,28 +22847,28 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="F636" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="G636" t="n">
         <v>0.215</v>
       </c>
       <c r="H636" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="I636" t="n">
-        <v>30000</v>
+        <v>184500</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>1578873600</v>
+        <v>1577750400</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22885,25 +22885,25 @@
         <v>0.22</v>
       </c>
       <c r="F637" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G637" t="n">
         <v>0.22</v>
       </c>
       <c r="H637" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I637" t="n">
-        <v>77000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>1578960000</v>
+        <v>1577923200</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22917,28 +22917,28 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="F638" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G638" t="n">
         <v>0.225</v>
-      </c>
-      <c r="G638" t="n">
-        <v>0.22</v>
       </c>
       <c r="H638" t="n">
         <v>0.225</v>
       </c>
       <c r="I638" t="n">
-        <v>60600</v>
+        <v>863700</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>1579046400</v>
+        <v>1578009600</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22952,28 +22952,28 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="F639" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="G639" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H639" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I639" t="n">
-        <v>30000</v>
+        <v>195400</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>1579132800</v>
+        <v>1578268800</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="F640" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="G640" t="n">
         <v>0.22</v>
@@ -22999,16 +22999,16 @@
         <v>0.22</v>
       </c>
       <c r="I640" t="n">
-        <v>4000</v>
+        <v>208100</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>1579219200</v>
+        <v>1578355200</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -23025,7 +23025,7 @@
         <v>0.22</v>
       </c>
       <c r="F641" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="G641" t="n">
         <v>0.22</v>
@@ -23033,19 +23033,17 @@
       <c r="H641" t="n">
         <v>0.22</v>
       </c>
-      <c r="I641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I641" t="n">
+        <v>555100</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>1579478400</v>
+        <v>1578441600</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -23065,22 +23063,22 @@
         <v>0.22</v>
       </c>
       <c r="G642" t="n">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="H642" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I642" t="n">
-        <v>86000</v>
+        <v>292700</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>1579564800</v>
+        <v>1578528000</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -23094,28 +23092,28 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="F643" t="n">
         <v>0.215</v>
       </c>
       <c r="G643" t="n">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="H643" t="n">
         <v>0.215</v>
       </c>
       <c r="I643" t="n">
-        <v>100</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>1579651200</v>
+        <v>1578614400</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -23129,16 +23127,16 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="F644" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="G644" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="H644" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="I644" t="n">
         <v>30000</v>
@@ -23146,11 +23144,11 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>1579737600</v>
+        <v>1578873600</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -23167,25 +23165,25 @@
         <v>0.22</v>
       </c>
       <c r="F645" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="G645" t="n">
         <v>0.22</v>
       </c>
       <c r="H645" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="I645" t="n">
-        <v>30000</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>1579824000</v>
+        <v>1578960000</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -23199,28 +23197,28 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="F646" t="n">
         <v>0.225</v>
       </c>
       <c r="G646" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H646" t="n">
         <v>0.225</v>
       </c>
       <c r="I646" t="n">
-        <v>5000</v>
+        <v>60600</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>1580169600</v>
+        <v>1579046400</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -23237,25 +23235,25 @@
         <v>0.22</v>
       </c>
       <c r="F647" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="G647" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="H647" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="I647" t="n">
-        <v>174100</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>1580256000</v>
+        <v>1579132800</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -23269,28 +23267,28 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="F648" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="G648" t="n">
         <v>0.22</v>
       </c>
       <c r="H648" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="I648" t="n">
-        <v>100200</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>1580342400</v>
+        <v>1579219200</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -23304,28 +23302,30 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="F649" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="G649" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H649" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="I649" t="n">
-        <v>522500</v>
+        <v>0.22</v>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>1580428800</v>
+        <v>1579478400</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -23339,28 +23339,28 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F650" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G650" t="n">
         <v>0.215</v>
       </c>
-      <c r="G650" t="n">
-        <v>0.205</v>
-      </c>
       <c r="H650" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="I650" t="n">
-        <v>371400</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>1580688000</v>
+        <v>1579564800</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -23374,28 +23374,28 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="F651" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="G651" t="n">
-        <v>0.19</v>
+        <v>0.215</v>
       </c>
       <c r="H651" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="I651" t="n">
-        <v>290000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>1580774400</v>
+        <v>1579651200</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -23409,30 +23409,28 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="F652" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="G652" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="H652" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="I652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.22</v>
+      </c>
+      <c r="I652" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>1580860800</v>
+        <v>1579737600</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -23446,28 +23444,28 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="F653" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="G653" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="H653" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="I653" t="n">
-        <v>100</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>1580947200</v>
+        <v>1579824000</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -23481,28 +23479,28 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>0.205</v>
+        <v>0.225</v>
       </c>
       <c r="F654" t="n">
-        <v>0.21</v>
+        <v>0.225</v>
       </c>
       <c r="G654" t="n">
-        <v>0.205</v>
+        <v>0.225</v>
       </c>
       <c r="H654" t="n">
-        <v>0.21</v>
+        <v>0.225</v>
       </c>
       <c r="I654" t="n">
-        <v>59100</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>1581033600</v>
+        <v>1580169600</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -23516,30 +23514,28 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F655" t="n">
-        <v>0.21</v>
+        <v>0.225</v>
       </c>
       <c r="G655" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="H655" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.215</v>
+      </c>
+      <c r="I655" t="n">
+        <v>174100</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>1581292800</v>
+        <v>1580256000</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -23553,28 +23549,28 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>0.205</v>
+        <v>0.225</v>
       </c>
       <c r="F656" t="n">
-        <v>0.205</v>
+        <v>0.225</v>
       </c>
       <c r="G656" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="H656" t="n">
-        <v>0.2</v>
+        <v>0.225</v>
       </c>
       <c r="I656" t="n">
-        <v>49100</v>
+        <v>100200</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>1581379200</v>
+        <v>1580342400</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -23588,28 +23584,28 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>0.205</v>
+        <v>0.225</v>
       </c>
       <c r="F657" t="n">
-        <v>0.205</v>
+        <v>0.225</v>
       </c>
       <c r="G657" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="H657" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="I657" t="n">
-        <v>10000</v>
+        <v>522500</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>1581465600</v>
+        <v>1580428800</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -23623,10 +23619,10 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="F658" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="G658" t="n">
         <v>0.205</v>
@@ -23634,19 +23630,17 @@
       <c r="H658" t="n">
         <v>0.205</v>
       </c>
-      <c r="I658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I658" t="n">
+        <v>371400</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>1581552000</v>
+        <v>1580688000</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -23660,28 +23654,28 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="F659" t="n">
         <v>0.205</v>
       </c>
       <c r="G659" t="n">
-        <v>0.205</v>
+        <v>0.19</v>
       </c>
       <c r="H659" t="n">
         <v>0.205</v>
       </c>
       <c r="I659" t="n">
-        <v>55800</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>1581638400</v>
+        <v>1580774400</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -23714,11 +23708,11 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>1581897600</v>
+        <v>1580860800</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -23732,30 +23726,28 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="F661" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="G661" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="H661" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="I661" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.215</v>
+      </c>
+      <c r="I661" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>1581984000</v>
+        <v>1580947200</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -23772,25 +23764,25 @@
         <v>0.205</v>
       </c>
       <c r="F662" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="G662" t="n">
         <v>0.205</v>
       </c>
       <c r="H662" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="I662" t="n">
-        <v>140000</v>
+        <v>59100</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>1582070400</v>
+        <v>1581033600</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -23804,16 +23796,16 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="F663" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="G663" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="H663" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="I663" t="inlineStr">
         <is>
@@ -23823,11 +23815,11 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>1582156800</v>
+        <v>1581292800</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -23847,24 +23839,22 @@
         <v>0.205</v>
       </c>
       <c r="G664" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="H664" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="I664" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="I664" t="n">
+        <v>49100</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>1582243200</v>
+        <v>1581379200</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -23889,19 +23879,17 @@
       <c r="H665" t="n">
         <v>0.205</v>
       </c>
-      <c r="I665" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I665" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>1582502400</v>
+        <v>1581465600</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23926,17 +23914,19 @@
       <c r="H666" t="n">
         <v>0.205</v>
       </c>
-      <c r="I666" t="n">
-        <v>58300</v>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>1582588800</v>
+        <v>1581552000</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23961,19 +23951,17 @@
       <c r="H667" t="n">
         <v>0.205</v>
       </c>
-      <c r="I667" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I667" t="n">
+        <v>55800</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>1582675200</v>
+        <v>1581638400</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -23987,28 +23975,30 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="F668" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="G668" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="H668" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="I668" t="n">
-        <v>20000</v>
+        <v>0.205</v>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>1582761600</v>
+        <v>1581897600</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -24022,28 +24012,30 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="F669" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="G669" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="H669" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="I669" t="n">
-        <v>2000</v>
+        <v>0.205</v>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>1582848000</v>
+        <v>1581984000</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -24057,28 +24049,28 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="F670" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="G670" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="H670" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="I670" t="n">
-        <v>29900</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>1583107200</v>
+        <v>1582070400</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -24092,16 +24084,16 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="F671" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="G671" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="H671" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="I671" t="inlineStr">
         <is>
@@ -24111,11 +24103,11 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>1583193600</v>
+        <v>1582156800</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -24129,28 +24121,30 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="F672" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="G672" t="n">
-        <v>0.17</v>
+        <v>0.205</v>
       </c>
       <c r="H672" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I672" t="n">
-        <v>52600</v>
+        <v>0.205</v>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>1583280000</v>
+        <v>1582243200</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -24167,25 +24161,27 @@
         <v>0.205</v>
       </c>
       <c r="F673" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="G673" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="H673" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="I673" t="n">
-        <v>212800</v>
+        <v>0.205</v>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>1583366400</v>
+        <v>1582502400</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -24199,28 +24195,28 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="F674" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="G674" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="H674" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="I674" t="n">
-        <v>30000</v>
+        <v>58300</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>1583452800</v>
+        <v>1582588800</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -24234,16 +24230,16 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="F675" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="G675" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="H675" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="I675" t="inlineStr">
         <is>
@@ -24253,11 +24249,11 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>1583712000</v>
+        <v>1582675200</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -24271,28 +24267,28 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F676" t="n">
-        <v>0.19</v>
+        <v>0.215</v>
       </c>
       <c r="G676" t="n">
-        <v>0.185</v>
+        <v>0.195</v>
       </c>
       <c r="H676" t="n">
-        <v>0.185</v>
+        <v>0.195</v>
       </c>
       <c r="I676" t="n">
-        <v>32400</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>1583798400</v>
+        <v>1582761600</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -24306,28 +24302,28 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>0.185</v>
+        <v>0.215</v>
       </c>
       <c r="F677" t="n">
-        <v>0.185</v>
+        <v>0.215</v>
       </c>
       <c r="G677" t="n">
-        <v>0.17</v>
+        <v>0.215</v>
       </c>
       <c r="H677" t="n">
-        <v>0.185</v>
+        <v>0.215</v>
       </c>
       <c r="I677" t="n">
-        <v>80100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>1583884800</v>
+        <v>1582848000</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -24341,28 +24337,28 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F678" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G678" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="H678" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="I678" t="n">
-        <v>50000</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>1583971200</v>
+        <v>1583107200</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -24376,53 +24372,337 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="F679" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="G679" t="n">
-        <v>0.135</v>
+        <v>0.19</v>
       </c>
       <c r="H679" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="I679" t="n">
-        <v>105000</v>
+        <v>0.19</v>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E680" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G680" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I680" t="n">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E681" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F681" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G681" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I681" t="n">
+        <v>212800</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E682" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F682" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G682" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I682" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E683" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F683" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E684" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F684" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G684" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I684" t="n">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E685" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F685" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G685" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I685" t="n">
+        <v>80100</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E686" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F686" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G686" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I686" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E687" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F687" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G687" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I687" t="n">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B680" t="inlineStr">
+      <c r="B688" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>0191</t>
-        </is>
-      </c>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>CABNET</t>
-        </is>
-      </c>
-      <c r="E680" t="n">
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E688" t="n">
         <v>0.14</v>
       </c>
-      <c r="F680" t="n">
+      <c r="F688" t="n">
         <v>0.15</v>
       </c>
-      <c r="G680" t="n">
+      <c r="G688" t="n">
         <v>0.14</v>
       </c>
-      <c r="H680" t="n">
+      <c r="H688" t="n">
         <v>0.14</v>
       </c>
-      <c r="I680" t="n">
+      <c r="I688" t="n">
         <v>385300</v>
       </c>
     </row>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I688"/>
+  <dimension ref="A1:I689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24706,6 +24706,41 @@
         <v>385300</v>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E689" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F689" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G689" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I689" t="n">
+        <v>385000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I689"/>
+  <dimension ref="A1:I690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24741,6 +24741,41 @@
         <v>385000</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E690" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G690" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I690" t="n">
+        <v>62700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I690"/>
+  <dimension ref="A1:I691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24776,6 +24776,41 @@
         <v>62700</v>
       </c>
     </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E691" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F691" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G691" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I691" t="n">
+        <v>386700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I691"/>
+  <dimension ref="A1:I692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24811,6 +24811,41 @@
         <v>386700</v>
       </c>
     </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E692" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G692" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I692" t="n">
+        <v>623000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I692"/>
+  <dimension ref="A1:I693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24846,6 +24846,41 @@
         <v>623000</v>
       </c>
     </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E693" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G693" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I693" t="n">
+        <v>158300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I693"/>
+  <dimension ref="A1:I694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24881,6 +24881,41 @@
         <v>158300</v>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E694" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F694" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G694" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I694" t="n">
+        <v>64700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I694"/>
+  <dimension ref="A1:I695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24916,6 +24916,41 @@
         <v>64700</v>
       </c>
     </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E695" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F695" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G695" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I695" t="n">
+        <v>604100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I695"/>
+  <dimension ref="A1:I696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24951,6 +24951,41 @@
         <v>604100</v>
       </c>
     </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E696" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F696" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G696" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I696" t="n">
+        <v>121600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I696"/>
+  <dimension ref="A1:I697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24986,6 +24986,43 @@
         <v>121600</v>
       </c>
     </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E697" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F697" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G697" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I697"/>
+  <dimension ref="A1:I698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25023,6 +25023,41 @@
         </is>
       </c>
     </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E698" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F698" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G698" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I698" t="n">
+        <v>52600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I698"/>
+  <dimension ref="A1:I699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25058,6 +25058,41 @@
         <v>52600</v>
       </c>
     </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E699" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F699" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G699" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I699" t="n">
+        <v>18500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I699"/>
+  <dimension ref="A1:I700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25093,6 +25093,41 @@
         <v>18500</v>
       </c>
     </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E700" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F700" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G700" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I700" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I700"/>
+  <dimension ref="A1:I701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25128,6 +25128,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E701" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F701" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G701" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I701" t="n">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I701"/>
+  <dimension ref="A1:I702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25163,6 +25163,43 @@
         <v>600</v>
       </c>
     </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E702" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F702" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G702" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I702"/>
+  <dimension ref="A1:I703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25200,6 +25200,41 @@
         </is>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E703" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G703" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I703" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I703"/>
+  <dimension ref="A1:I704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25235,6 +25235,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E704" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F704" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G704" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I704"/>
+  <dimension ref="A1:I705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25272,6 +25272,43 @@
         </is>
       </c>
     </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E705" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G705" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I705"/>
+  <dimension ref="A1:I706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25309,6 +25309,41 @@
         </is>
       </c>
     </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E706" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F706" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G706" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I706" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I706"/>
+  <dimension ref="A1:I707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25344,6 +25344,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E707" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F707" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G707" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I707" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I707"/>
+  <dimension ref="A1:I708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25379,6 +25379,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E708" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F708" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G708" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I708" t="n">
+        <v>70100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I708"/>
+  <dimension ref="A1:I709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25414,6 +25414,41 @@
         <v>70100</v>
       </c>
     </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E709" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F709" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G709" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I709" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I709"/>
+  <dimension ref="A1:I710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25449,6 +25449,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E710" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F710" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G710" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I710"/>
+  <dimension ref="A1:I711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25486,6 +25486,41 @@
         </is>
       </c>
     </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E711" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F711" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G711" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I711" t="n">
+        <v>54000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I711"/>
+  <dimension ref="A1:I712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25521,6 +25521,41 @@
         <v>54000</v>
       </c>
     </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E712" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F712" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G712" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I712" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I712"/>
+  <dimension ref="A1:I713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25556,6 +25556,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E713" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F713" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G713" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I713" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I713"/>
+  <dimension ref="A1:I715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25591,6 +25591,76 @@
         <v>100</v>
       </c>
     </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E714" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F714" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G714" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I714" t="n">
+        <v>80100</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E715" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F715" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G715" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I715" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I715"/>
+  <dimension ref="A1:I716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25661,6 +25661,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E716" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G716" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I716"/>
+  <dimension ref="A1:I719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25698,6 +25698,115 @@
         </is>
       </c>
     </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E717" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F717" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G717" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E718" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F718" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G718" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E719" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F719" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G719" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I719" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I719"/>
+  <dimension ref="A1:I720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25807,6 +25807,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E720" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F720" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G720" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I720"/>
+  <dimension ref="A1:I721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25844,6 +25844,41 @@
         </is>
       </c>
     </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E721" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F721" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G721" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I721" t="n">
+        <v>13600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0191.xlsx
+++ b/data/0191.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I721"/>
+  <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25879,6 +25879,111 @@
         <v>13600</v>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E722" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F722" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G722" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I722" t="n">
+        <v>708100</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E723" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F723" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G723" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I723" t="n">
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>0191</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>CABNET</t>
+        </is>
+      </c>
+      <c r="E724" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F724" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G724" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I724" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
